--- a/matsuoka/機械学習パターン.xlsx
+++ b/matsuoka/機械学習パターン.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaMto\Documents\トップエスイー\ソフトウェア開発実践演習\Github\topse-2018-kaggle\team\matsuoka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaMto\Google ドライブ\トップエスイー\ソフトウェア開発実践演習\Github\topse-2018-kaggle\team\matsuoka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8445CF-5A3C-4564-A0F6-00109648A8EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D111090-6952-4710-AEBD-22F3FB4F4411}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" xr2:uid="{36E6B7FA-6078-479A-8CF7-CA0046404250}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>パターン名と分類</t>
     <rPh sb="4" eb="5">
@@ -197,37 +197,119 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>// scikit-learnを利用する場合
+    <t># scikit-learnを利用する場合
 from sklearn.linear_model import LinearRegression
 lm = LinearRegression()
-lm.fit(X_train,y_train) // X_trainは訓練データの説明変数、y_trainは訓練データの目的変数
-predictions = lm.predict(X_test) // X_testはテストデータの説明変数</t>
+lm.fit(X_train,y_train) # X_trainは訓練データの説明変数、y_trainは訓練データの目的変数
+predictions = lm.predict(X_test) # X_testはテストデータの説明変数</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="155" eb="159">
+      <t>モクテキヘンスウ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. データのクレンジングをする。(欠損値のあるデータを除くなど)
+2. データを見て、説明変数を選ぶ。
+3. データから説明変数と目的変数を抽出する。
+4. 2.の中から訓練データとテストデータに分ける
+5. 訓練データについて線形回帰を適用する。
+6. テストデータを使い、モデルを評価する。</t>
+    <rPh sb="18" eb="21">
+      <t>ケッソンチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>セツメイヘンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>モクテキヘンスウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>センケイカイキ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明変数の種類はなるべく減らす(次元の呪いを回避する)。</t>
+    <rPh sb="0" eb="4">
+      <t>セツメイヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヘ</t>
+    </rPh>
     <rPh sb="16" eb="18">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>クンレン</t>
-    </rPh>
-    <rPh sb="157" eb="161">
-      <t>モクテキヘンスウ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>ヘンスウ</t>
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -598,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DC1A42-B505-4165-9AA1-B9DE7A1F4799}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -608,9 +688,10 @@
     <col min="2" max="2" width="51.875" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="54.75" customWidth="1"/>
     <col min="7" max="7" width="69" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
     <col min="9" max="9" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="31.125" customWidth="1"/>
   </cols>
@@ -650,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -659,6 +740,12 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>

--- a/matsuoka/機械学習パターン.xlsx
+++ b/matsuoka/機械学習パターン.xlsx
@@ -8,29 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaMto\Google ドライブ\トップエスイー\ソフトウェア開発実践演習\Github\topse-2018-kaggle\team\matsuoka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D111090-6952-4710-AEBD-22F3FB4F4411}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF69F4-578F-4A97-9B1A-00F0EA95650B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" xr2:uid="{36E6B7FA-6078-479A-8CF7-CA0046404250}"/>
   </bookViews>
   <sheets>
     <sheet name="機械学習パターン" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>パターン名と分類</t>
     <rPh sb="4" eb="5">
@@ -185,14 +180,6 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロジスティック回帰
-サポートベクタマシン</t>
-    <rPh sb="7" eb="9">
-      <t>カイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,12 +300,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ロジスティック回帰
+線形サポートベクタマシン</t>
+    <rPh sb="7" eb="9">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E7%B7%9A%E5%BD%A2%E5%9B%9E%E5%B8%B0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +331,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -352,20 +363,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="38.375" customWidth="1"/>
     <col min="2" max="2" width="51.875" customWidth="1"/>
@@ -696,7 +714,7 @@
     <col min="11" max="11" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -742,24 +760,30 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{C2D7A769-0715-4277-86CC-C2FA87ED1A46}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>